--- a/디비.xlsx
+++ b/디비.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
   <si>
     <t>회원번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -311,6 +311,154 @@
   </si>
   <si>
     <t>사진타입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙소예약목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투어예약목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀댓글여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀댓글여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가쓴글목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가쓴댓글목록</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -704,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C9:N40"/>
+  <dimension ref="C9:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -723,16 +871,20 @@
     <col min="10" max="10" width="16.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="13" max="13" width="14" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="14.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>0</v>
       </c>
@@ -760,14 +912,32 @@
       <c r="K10" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -784,13 +954,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:17" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
@@ -1006,6 +1176,124 @@
       </c>
       <c r="N40" s="3" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C42" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C43" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C45" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C46" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C48" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C49" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C51" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
